--- a/docs/progress.xlsx
+++ b/docs/progress.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="24780" windowHeight="12660"/>
   </bookViews>
   <sheets>
-    <sheet name="Iteration 1.2 History" sheetId="11" r:id="rId1"/>
-    <sheet name="Iteration 1.2 Graphs" sheetId="12" r:id="rId2"/>
-    <sheet name="Iteration Graph Template" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Iteration 2.1 History" sheetId="14" r:id="rId1"/>
+    <sheet name="Iteration 2.1 Graphs" sheetId="17" r:id="rId2"/>
+    <sheet name="Iteration Graph Template" sheetId="16" state="hidden" r:id="rId3"/>
+    <sheet name="Iteration 1.2 History" sheetId="11" r:id="rId4"/>
+    <sheet name="Iteration 1.2 Graphs" sheetId="12" r:id="rId5"/>
+    <sheet name="Iteration History Template" sheetId="15" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -34,9 +37,6 @@
   </si>
   <si>
     <t>Holidays</t>
-  </si>
-  <si>
-    <t>Open work items (TFS bugs and tasks for this iteration)</t>
   </si>
   <si>
     <t>Schedule overrun (future data are estimated)</t>
@@ -314,7 +314,87 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="0.34998626667073579"/>
@@ -366,6 +446,1134 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$F$8:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="62616320"/>
+        <c:axId val="62617856"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="62616320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62617856"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="62617856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62616320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$C$8:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15.549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.850000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="63226624"/>
+        <c:axId val="63228160"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="63226624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63228160"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63228160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63226624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$H$8:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="63374464"/>
+        <c:axId val="63376000"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="63374464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63376000"/>
+        <c:crossesAt val="-99999"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63376000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63374464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$I$8:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="63411712"/>
+        <c:axId val="63413248"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="63411712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63413248"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63413248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63411712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$C$8:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="62645376"/>
+        <c:axId val="62646912"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="62645376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62646912"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="62646912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62645376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$H$8:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.42857142857142855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="63002112"/>
+        <c:axId val="63003648"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="63002112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63003648"/>
+        <c:crossesAt val="-99999"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63003648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63002112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$I$8:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="63010688"/>
+        <c:axId val="63012224"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="63010688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63012224"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63012224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63010688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$F$8:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="63056512"/>
+        <c:axId val="63074688"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="63056512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63074688"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63074688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63056512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:alpha val="65000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$C$8:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="63085568"/>
+        <c:axId val="63103744"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="63085568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63103744"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63103744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63085568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$H$8:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.42857142857142855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="63110528"/>
+        <c:axId val="63120512"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="63110528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63120512"/>
+        <c:crossesAt val="-99999"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63120512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63110528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 1.2 History'!$I$8:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="63126912"/>
+        <c:axId val="63153280"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="63126912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63153280"/>
+        <c:crosses val="autoZero"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="63153280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63126912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -457,24 +1665,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="62721408"/>
-        <c:axId val="62735488"/>
+        <c:axId val="63193472"/>
+        <c:axId val="63195008"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="62721408"/>
+        <c:axId val="63193472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62735488"/>
+        <c:crossAx val="63195008"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="62735488"/>
+        <c:axId val="63195008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,7 +1690,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62721408"/>
+        <c:crossAx val="63193472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -491,1123 +1699,263 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Adam</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD">
-                <a:alpha val="65000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 1.2 History'!$B$8:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>40355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40356</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40357</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40360</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40361</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40362</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 1.2 History'!$C$8:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>15.549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.850000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="62767104"/>
-        <c:axId val="62768640"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="62767104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62768640"/>
-        <c:crosses val="autoZero"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="62768640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62767104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Adam</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 1.2 History'!$B$8:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>40355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40356</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40357</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40360</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40361</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40362</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 1.2 History'!$H$8:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-0.7142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.42857142857142855</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8571428571428568</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="63050112"/>
-        <c:axId val="63051648"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="63050112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63051648"/>
-        <c:crossesAt val="-99999"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="63051648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63050112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Adam</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Iteration 1.2 History'!$B$8:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>40355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40356</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40357</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40360</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40361</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40362</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 1.2 History'!$I$8:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="63070976"/>
-        <c:axId val="63072512"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="63070976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63072512"/>
-        <c:crosses val="autoZero"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="63072512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63070976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.2520097291503494E-2"/>
-          <c:y val="4.9675703288766762E-2"/>
-          <c:w val="0.82977504775253874"/>
-          <c:h val="0.73094646726206203"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Katrin</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C0504D">
-                <a:alpha val="65000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Adam</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD">
-                <a:alpha val="65000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Targo</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9BBB59">
-                <a:alpha val="65000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="63196160"/>
-        <c:axId val="63202048"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="63196160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63202048"/>
-        <c:crosses val="autoZero"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="63202048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63196160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.4988315755569718E-2"/>
-          <c:y val="5.2869141357330389E-2"/>
-          <c:w val="0.82515093576749377"/>
-          <c:h val="0.71624596925384365"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Katrin</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Adam</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Targo</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="63235584"/>
-        <c:axId val="63237120"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="63235584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63237120"/>
-        <c:crosses val="autoZero"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="63237120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63235584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.91406440382941689"/>
-          <c:y val="0.37083614548181482"/>
-          <c:w val="7.1983717440019732E-2"/>
-          <c:h val="0.2583273340832396"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.4196391247438861E-2"/>
-          <c:y val="5.1048118985126859E-2"/>
-          <c:w val="0.831164792390508"/>
-          <c:h val="0.72627401574803163"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Adam</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="4F81BD">
-                  <a:alpha val="65000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Katrin</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="C0504D">
-                  <a:alpha val="65000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Targo</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="9BBB59">
-                  <a:alpha val="65000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="63135744"/>
-        <c:axId val="63137280"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="63135744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63137280"/>
-        <c:crossesAt val="-99999"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="63137280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63135744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.90536118363794515"/>
-          <c:y val="0.32166929133858302"/>
-          <c:w val="8.7676240208877293E-2"/>
-          <c:h val="0.24110551181102371"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.4118062265715484E-2"/>
-          <c:y val="4.9675703288766762E-2"/>
-          <c:w val="0.84916305174646856"/>
-          <c:h val="0.73338547446669888"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Adam</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Katrin</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Targo</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:alpha val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="63248256"/>
-        <c:axId val="63249792"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="63248256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63249792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="63249792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63248256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.90710155355906874"/>
-          <c:y val="0.31599816801423353"/>
-          <c:w val="8.9417158364342844E-2"/>
-          <c:h val="0.24272366960841305"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1716,139 +2064,6 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2154,7 +2369,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2184,25 +2399,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" hidden="1">
@@ -2276,29 +2491,29 @@
         <v>1</v>
       </c>
       <c r="B8" s="9">
-        <v>40355</v>
+        <v>40362</v>
       </c>
       <c r="C8" s="12">
-        <v>15.549999999999999</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13">
-        <v>6.05</v>
+        <v>3.2</v>
       </c>
       <c r="E8" s="13">
         <f>IF(ISBLANK($A8),"",IF(ISBLANK(D8),MIN(E7,F7),(D8-D2)/MIN(ROW()-7,7)))</f>
-        <v>6.05</v>
+        <v>3.2</v>
       </c>
       <c r="F8" s="13">
         <f>IF(ISBLANK($A8),"",IF(ISBLANK(D8),MAX(0,F7-E8),C8-D8))</f>
-        <v>9.5</v>
+        <v>52.8</v>
       </c>
       <c r="G8" s="15">
         <f>IF(ISBLANK($A8),"",IF(AND(NOT(ISBLANK(G7)),F7=0),G7,IF(E8=0,"",$B8+ROUNDUP(F8/E8,0))))</f>
-        <v>40357</v>
+        <v>40379</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" ref="H8:H39" si="0">IF(ISBLANK($A8),"",IF(G8="",IF(F8=0,H7,""),(G8-$L$8)/($L$8-$B$8)))</f>
-        <v>-0.7142857142857143</v>
+        <f t="shared" ref="H8:H71" si="0">IF(ISBLANK($A8),"",IF(G8="",IF(F8=0,H7,""),(G8-$L$8)/($L$8-$B$8)))</f>
+        <v>-0.39285714285714285</v>
       </c>
       <c r="I8" s="24">
         <v>0</v>
@@ -2307,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="1">
-        <v>40362</v>
+        <v>40390</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2316,29 +2531,29 @@
       </c>
       <c r="B9" s="8">
         <f>IF(ISBLANK(A9),"",B$8+A9-1)</f>
-        <v>40356</v>
+        <v>40363</v>
       </c>
       <c r="C9" s="12">
-        <v>18.75</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" ref="E9:E72" si="1">IF(ISBLANK($A9),"",IF(ISBLANK(D9),MIN(E8,F8),(D9-D3)/MIN(ROW()-7,7)))</f>
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" ref="F9:F72" si="2">IF(ISBLANK($A9),"",IF(ISBLANK(D9),MAX(0,F8-E9),C9-D9))</f>
-        <v>10.85</v>
+        <v>48.5</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9:G72" si="3">IF(ISBLANK($A9),"",IF(AND(NOT(ISBLANK(G8)),F8=0),G8,IF(E9=0,"",$B9+ROUNDUP(F9/E9,0))))</f>
-        <v>40359</v>
+        <v>40376</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="0"/>
-        <v>-0.42857142857142855</v>
+        <v>-0.5</v>
       </c>
       <c r="I9" s="24">
         <v>0</v>
@@ -2348,223 +2563,151 @@
       </c>
       <c r="L9" s="6">
         <f>VLOOKUP(MAX($A$2:$A$100),$A$2:G$100,7)</f>
-        <v>40362</v>
+        <v>40376</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B73" si="4">IF(ISBLANK(A10),"",B$8+A10-1)</f>
-        <v>40357</v>
-      </c>
-      <c r="C10" s="12">
-        <v>18.75</v>
-      </c>
-      <c r="D10" s="13">
-        <v>7.9</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="1"/>
-        <v>2.6333333333333333</v>
-      </c>
-      <c r="F10" s="13">
-        <f t="shared" si="2"/>
-        <v>10.85</v>
-      </c>
-      <c r="G10" s="15">
-        <f t="shared" si="3"/>
-        <v>40362</v>
-      </c>
-      <c r="H10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="E10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G10" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="K10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="16">
         <f>($L$9-$L$8)/($L$8-$B$8)</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8">
-        <f t="shared" si="4"/>
-        <v>40358</v>
-      </c>
-      <c r="C11" s="12">
-        <v>18.75</v>
-      </c>
-      <c r="D11" s="13">
-        <v>7.9</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="1"/>
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="2"/>
-        <v>10.85</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="3"/>
-        <v>40364</v>
-      </c>
-      <c r="H11" s="22">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0</v>
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8">
-        <f t="shared" si="4"/>
-        <v>40359</v>
-      </c>
-      <c r="C12" s="12">
-        <v>18.75</v>
-      </c>
-      <c r="D12" s="13">
-        <v>7.9</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="1"/>
-        <v>1.58</v>
-      </c>
-      <c r="F12" s="13">
-        <f t="shared" si="2"/>
-        <v>10.85</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" si="3"/>
-        <v>40366</v>
-      </c>
-      <c r="H12" s="22">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I12" s="24">
-        <v>0</v>
+      <c r="B12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="K12" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8">
-        <f t="shared" si="4"/>
-        <v>40360</v>
-      </c>
-      <c r="C13" s="12">
-        <v>18.75</v>
-      </c>
-      <c r="D13" s="13">
-        <v>7.9</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3166666666666667</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="2"/>
-        <v>10.85</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" si="3"/>
-        <v>40369</v>
-      </c>
-      <c r="H13" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0</v>
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8">
-        <f t="shared" si="4"/>
-        <v>40361</v>
-      </c>
-      <c r="C14" s="12">
-        <v>18.75</v>
-      </c>
-      <c r="D14" s="13">
-        <v>7.9</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="1"/>
-        <v>0.26428571428571435</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="2"/>
-        <v>10.85</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="3"/>
-        <v>40403</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="0"/>
-        <v>5.8571428571428568</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0</v>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8">
-        <f t="shared" si="4"/>
-        <v>40362</v>
-      </c>
-      <c r="C15" s="12">
-        <v>11.850000000000001</v>
-      </c>
-      <c r="D15" s="12">
-        <v>11.850000000000001</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" si="1"/>
-        <v>0.56428571428571439</v>
-      </c>
-      <c r="F15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="3"/>
-        <v>40362</v>
-      </c>
-      <c r="H15" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="24">
-        <v>0</v>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="K15" s="18"/>
     </row>
@@ -3138,7 +3281,7 @@
         <v/>
       </c>
       <c r="H40" s="22" t="str">
-        <f t="shared" ref="H40:H71" si="5">IF(ISBLANK($A40),"",IF(G40="",IF(F40=0,H39,""),(G40-$L$8)/($L$8-$B$8)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K40" s="20"/>
@@ -3161,7 +3304,7 @@
         <v/>
       </c>
       <c r="H41" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3183,7 +3326,7 @@
         <v/>
       </c>
       <c r="H42" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3205,7 +3348,7 @@
         <v/>
       </c>
       <c r="H43" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3227,7 +3370,7 @@
         <v/>
       </c>
       <c r="H44" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3249,7 +3392,7 @@
         <v/>
       </c>
       <c r="H45" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3271,7 +3414,7 @@
         <v/>
       </c>
       <c r="H46" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3293,7 +3436,7 @@
         <v/>
       </c>
       <c r="H47" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3315,7 +3458,7 @@
         <v/>
       </c>
       <c r="H48" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3337,7 +3480,7 @@
         <v/>
       </c>
       <c r="H49" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3359,7 +3502,7 @@
         <v/>
       </c>
       <c r="H50" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3381,7 +3524,7 @@
         <v/>
       </c>
       <c r="H51" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3403,7 +3546,7 @@
         <v/>
       </c>
       <c r="H52" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3425,7 +3568,7 @@
         <v/>
       </c>
       <c r="H53" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3447,7 +3590,7 @@
         <v/>
       </c>
       <c r="H54" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3469,7 +3612,7 @@
         <v/>
       </c>
       <c r="H55" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3491,7 +3634,7 @@
         <v/>
       </c>
       <c r="H56" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3513,7 +3656,7 @@
         <v/>
       </c>
       <c r="H57" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3535,7 +3678,7 @@
         <v/>
       </c>
       <c r="H58" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3557,7 +3700,7 @@
         <v/>
       </c>
       <c r="H59" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3579,7 +3722,7 @@
         <v/>
       </c>
       <c r="H60" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3601,7 +3744,7 @@
         <v/>
       </c>
       <c r="H61" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3623,7 +3766,7 @@
         <v/>
       </c>
       <c r="H62" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3645,7 +3788,7 @@
         <v/>
       </c>
       <c r="H63" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3667,7 +3810,7 @@
         <v/>
       </c>
       <c r="H64" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3689,7 +3832,7 @@
         <v/>
       </c>
       <c r="H65" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3711,7 +3854,7 @@
         <v/>
       </c>
       <c r="H66" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3733,7 +3876,7 @@
         <v/>
       </c>
       <c r="H67" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3755,7 +3898,7 @@
         <v/>
       </c>
       <c r="H68" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3777,7 +3920,7 @@
         <v/>
       </c>
       <c r="H69" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3799,7 +3942,7 @@
         <v/>
       </c>
       <c r="H70" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3821,7 +3964,7 @@
         <v/>
       </c>
       <c r="H71" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3843,7 +3986,7 @@
         <v/>
       </c>
       <c r="H72" s="22" t="str">
-        <f t="shared" ref="H72:H100" si="6">IF(ISBLANK($A72),"",IF(G72="",IF(F72=0,H71,""),(G72-$L$8)/($L$8-$B$8)))</f>
+        <f t="shared" ref="H72:H100" si="5">IF(ISBLANK($A72),"",IF(G72="",IF(F72=0,H71,""),(G72-$L$8)/($L$8-$B$8)))</f>
         <v/>
       </c>
     </row>
@@ -3853,623 +3996,623 @@
         <v/>
       </c>
       <c r="E73" s="13" t="str">
-        <f t="shared" ref="E73:E100" si="7">IF(ISBLANK($A73),"",IF(ISBLANK(D73),MIN(E72,F72),(D73-D67)/MIN(ROW()-7,7)))</f>
+        <f t="shared" ref="E73:E100" si="6">IF(ISBLANK($A73),"",IF(ISBLANK(D73),MIN(E72,F72),(D73-D67)/MIN(ROW()-7,7)))</f>
         <v/>
       </c>
       <c r="F73" s="13" t="str">
-        <f t="shared" ref="F73:F100" si="8">IF(ISBLANK($A73),"",IF(ISBLANK(D73),MAX(0,F72-E73),C73-D73))</f>
+        <f t="shared" ref="F73:F100" si="7">IF(ISBLANK($A73),"",IF(ISBLANK(D73),MAX(0,F72-E73),C73-D73))</f>
         <v/>
       </c>
       <c r="G73" s="15" t="str">
-        <f t="shared" ref="G73:G100" si="9">IF(ISBLANK($A73),"",IF(AND(NOT(ISBLANK(G72)),F72=0),G72,IF(E73=0,"",$B73+ROUNDUP(F73/E73,0))))</f>
+        <f t="shared" ref="G73:G100" si="8">IF(ISBLANK($A73),"",IF(AND(NOT(ISBLANK(G72)),F72=0),G72,IF(E73=0,"",$B73+ROUNDUP(F73/E73,0))))</f>
         <v/>
       </c>
       <c r="H73" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="8" t="str">
-        <f t="shared" ref="B74:B100" si="10">IF(ISBLANK(A74),"",B$8+A74-1)</f>
+        <f t="shared" ref="B74:B100" si="9">IF(ISBLANK(A74),"",B$8+A74-1)</f>
         <v/>
       </c>
       <c r="E74" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F74" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F74" s="13" t="str">
+      <c r="G74" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G74" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H74" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E75" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F75" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F75" s="13" t="str">
+      <c r="G75" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G75" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H75" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E76" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F76" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F76" s="13" t="str">
+      <c r="G76" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G76" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H76" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E77" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F77" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F77" s="13" t="str">
+      <c r="G77" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G77" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H77" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E78" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F78" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F78" s="13" t="str">
+      <c r="G78" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G78" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H78" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E79" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F79" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F79" s="13" t="str">
+      <c r="G79" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G79" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H79" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E80" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F80" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F80" s="13" t="str">
+      <c r="G80" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G80" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H80" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E81" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F81" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F81" s="13" t="str">
+      <c r="G81" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G81" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H81" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E82" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F82" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F82" s="13" t="str">
+      <c r="G82" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G82" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H82" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E83" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F83" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F83" s="13" t="str">
+      <c r="G83" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G83" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H83" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E84" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F84" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F84" s="13" t="str">
+      <c r="G84" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G84" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H84" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E85" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F85" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F85" s="13" t="str">
+      <c r="G85" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G85" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H85" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E86" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F86" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F86" s="13" t="str">
+      <c r="G86" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G86" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H86" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E87" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F87" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F87" s="13" t="str">
+      <c r="G87" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G87" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H87" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E88" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F88" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F88" s="13" t="str">
+      <c r="G88" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G88" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H88" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E89" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F89" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F89" s="13" t="str">
+      <c r="G89" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G89" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H89" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E90" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F90" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F90" s="13" t="str">
+      <c r="G90" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G90" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H90" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E91" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F91" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F91" s="13" t="str">
+      <c r="G91" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G91" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H91" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E92" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F92" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F92" s="13" t="str">
+      <c r="G92" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G92" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H92" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E93" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F93" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F93" s="13" t="str">
+      <c r="G93" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G93" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H93" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E94" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F94" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F94" s="13" t="str">
+      <c r="G94" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G94" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H94" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E95" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F95" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F95" s="13" t="str">
+      <c r="G95" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G95" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H95" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E96" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F96" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F96" s="13" t="str">
+      <c r="G96" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G96" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H96" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="B97" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E97" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F97" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F97" s="13" t="str">
+      <c r="G97" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G97" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H97" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="B98" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E98" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F98" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F98" s="13" t="str">
+      <c r="G98" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G98" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H98" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="B99" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E99" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F99" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F99" s="13" t="str">
+      <c r="G99" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G99" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H99" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="25"/>
       <c r="B100" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C100" s="27"/>
       <c r="D100" s="28"/>
       <c r="E100" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F100" s="28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F100" s="28" t="str">
+      <c r="G100" s="26" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G100" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="H100" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I100" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576 L10">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="-0.5"/>
         <cfvo type="num" val="0"/>
@@ -4481,22 +4624,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(ROW()&gt;1, NOT(ISBLANK($A1)), OR(ISBLANK(D1), F1&gt;0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4509,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4520,7 +4663,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4536,7 +4679,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -4552,7 +4695,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -4568,7 +4711,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -4599,7 +4742,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4609,7 +4752,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4625,7 +4768,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -4641,7 +4784,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -4657,7 +4800,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -4681,4 +4824,4714 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>40355</v>
+      </c>
+      <c r="C8" s="12">
+        <v>15.549999999999999</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6.05</v>
+      </c>
+      <c r="E8" s="13">
+        <f>IF(ISBLANK($A8),"",IF(ISBLANK(D8),MIN(E7,F7),(D8-D2)/MIN(ROW()-7,7)))</f>
+        <v>6.05</v>
+      </c>
+      <c r="F8" s="13">
+        <f>IF(ISBLANK($A8),"",IF(ISBLANK(D8),MAX(0,F7-E8),C8-D8))</f>
+        <v>9.5</v>
+      </c>
+      <c r="G8" s="15">
+        <f>IF(ISBLANK($A8),"",IF(AND(NOT(ISBLANK(G7)),F7=0),G7,IF(E8=0,"",$B8+ROUNDUP(F8/E8,0))))</f>
+        <v>40357</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" ref="H8:H39" si="0">IF(ISBLANK($A8),"",IF(G8="",IF(F8=0,H7,""),(G8-$L$8)/($L$8-$B$8)))</f>
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>40362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8">
+        <f>IF(ISBLANK(A9),"",B$8+A9-1)</f>
+        <v>40356</v>
+      </c>
+      <c r="C9" s="12">
+        <v>18.75</v>
+      </c>
+      <c r="D9" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" ref="E9:E72" si="1">IF(ISBLANK($A9),"",IF(ISBLANK(D9),MIN(E8,F8),(D9-D3)/MIN(ROW()-7,7)))</f>
+        <v>3.95</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" ref="F9:F72" si="2">IF(ISBLANK($A9),"",IF(ISBLANK(D9),MAX(0,F8-E9),C9-D9))</f>
+        <v>10.85</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" ref="G9:G72" si="3">IF(ISBLANK($A9),"",IF(AND(NOT(ISBLANK(G8)),F8=0),G8,IF(E9=0,"",$B9+ROUNDUP(F9/E9,0))))</f>
+        <v>40359</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.42857142857142855</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6">
+        <f>VLOOKUP(MAX($A$2:$A$100),$A$2:G$100,7)</f>
+        <v>40362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:B73" si="4">IF(ISBLANK(A10),"",B$8+A10-1)</f>
+        <v>40357</v>
+      </c>
+      <c r="C10" s="12">
+        <v>18.75</v>
+      </c>
+      <c r="D10" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="2"/>
+        <v>10.85</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="3"/>
+        <v>40362</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="16">
+        <f>($L$9-$L$8)/($L$8-$B$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="4"/>
+        <v>40358</v>
+      </c>
+      <c r="C11" s="12">
+        <v>18.75</v>
+      </c>
+      <c r="D11" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="2"/>
+        <v>10.85</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="3"/>
+        <v>40364</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="4"/>
+        <v>40359</v>
+      </c>
+      <c r="C12" s="12">
+        <v>18.75</v>
+      </c>
+      <c r="D12" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>1.58</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="2"/>
+        <v>10.85</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="3"/>
+        <v>40366</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="4"/>
+        <v>40360</v>
+      </c>
+      <c r="C13" s="12">
+        <v>18.75</v>
+      </c>
+      <c r="D13" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3166666666666667</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="2"/>
+        <v>10.85</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="3"/>
+        <v>40369</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="4"/>
+        <v>40361</v>
+      </c>
+      <c r="C14" s="12">
+        <v>18.75</v>
+      </c>
+      <c r="D14" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.26428571428571435</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="2"/>
+        <v>10.85</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="3"/>
+        <v>40403</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="0"/>
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="4"/>
+        <v>40362</v>
+      </c>
+      <c r="C15" s="12">
+        <v>11.850000000000001</v>
+      </c>
+      <c r="D15" s="12">
+        <v>11.850000000000001</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.56428571428571439</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="3"/>
+        <v>40362</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="24">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G16" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G17" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G21" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G22" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H22" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G23" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G27" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H27" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H29" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E30" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E32" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G32" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E33" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G33" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E34" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G34" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H34" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E35" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G35" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H35" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E36" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H36" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E37" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F37" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G37" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H37" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H38" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E39" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F39" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G39" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H39" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E40" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F40" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G40" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H40" s="22" t="str">
+        <f t="shared" ref="H40:H71" si="5">IF(ISBLANK($A40),"",IF(G40="",IF(F40=0,H39,""),(G40-$L$8)/($L$8-$B$8)))</f>
+        <v/>
+      </c>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E41" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G41" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H41" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E42" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F42" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G42" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H42" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E43" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F43" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G43" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H43" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E44" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G44" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H44" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E45" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F45" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G45" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H45" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E46" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H46" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E47" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G47" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H47" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E48" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H48" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E49" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F49" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G49" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H49" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E50" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F50" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G50" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H50" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E51" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G51" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H51" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E52" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F52" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G52" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H52" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E53" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F53" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G53" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H53" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E54" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F54" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G54" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H54" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E55" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F55" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G55" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H55" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E56" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F56" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G56" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H56" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E57" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F57" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G57" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H57" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E58" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F58" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G58" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H58" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E59" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F59" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G59" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H59" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E60" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F60" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G60" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H60" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E61" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F61" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G61" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H61" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E62" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F62" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G62" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H62" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E63" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F63" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G63" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H63" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E64" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F64" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G64" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H64" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E65" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F65" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G65" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H65" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E66" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G66" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H66" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E67" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F67" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G67" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H67" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E68" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F68" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G68" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H68" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E69" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F69" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G69" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H69" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E70" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F70" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G70" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H70" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E71" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F71" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G71" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H71" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E72" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F72" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G72" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H72" s="22" t="str">
+        <f t="shared" ref="H72:H100" si="6">IF(ISBLANK($A72),"",IF(G72="",IF(F72=0,H71,""),(G72-$L$8)/($L$8-$B$8)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E73" s="13" t="str">
+        <f t="shared" ref="E73:E100" si="7">IF(ISBLANK($A73),"",IF(ISBLANK(D73),MIN(E72,F72),(D73-D67)/MIN(ROW()-7,7)))</f>
+        <v/>
+      </c>
+      <c r="F73" s="13" t="str">
+        <f t="shared" ref="F73:F100" si="8">IF(ISBLANK($A73),"",IF(ISBLANK(D73),MAX(0,F72-E73),C73-D73))</f>
+        <v/>
+      </c>
+      <c r="G73" s="15" t="str">
+        <f t="shared" ref="G73:G100" si="9">IF(ISBLANK($A73),"",IF(AND(NOT(ISBLANK(G72)),F72=0),G72,IF(E73=0,"",$B73+ROUNDUP(F73/E73,0))))</f>
+        <v/>
+      </c>
+      <c r="H73" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="8" t="str">
+        <f t="shared" ref="B74:B100" si="10">IF(ISBLANK(A74),"",B$8+A74-1)</f>
+        <v/>
+      </c>
+      <c r="E74" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F74" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G74" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H74" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E75" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F75" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G75" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H75" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E76" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F76" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G76" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H76" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E77" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F77" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G77" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H77" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E78" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F78" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G78" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H78" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E79" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F79" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G79" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H79" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E80" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F80" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G80" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H80" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E81" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F81" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G81" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H81" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E82" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F82" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G82" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H82" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E83" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F83" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G83" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H83" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E84" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F84" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G84" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H84" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E85" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F85" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G85" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H85" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E86" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F86" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G86" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H86" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E87" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F87" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G87" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H87" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E88" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F88" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G88" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H88" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E89" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F89" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G89" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H89" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E90" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F90" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G90" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H90" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E91" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F91" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G91" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H91" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E92" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F92" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G92" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H92" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E93" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F93" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G93" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H93" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E94" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F94" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G94" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H94" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E95" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F95" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G95" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H95" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E96" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F96" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G96" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H96" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="B97" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E97" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F97" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G97" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H97" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="B98" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E98" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F98" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G98" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H98" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="B99" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E99" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F99" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G99" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H99" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="25"/>
+      <c r="B100" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F100" s="28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G100" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H100" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I100" s="30"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H1048576 L10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(ROW()&gt;1, NOT(ISBLANK($A1)), OR(ISBLANK(D1), F1&gt;0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A51:L51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" hidden="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>40355</v>
+      </c>
+      <c r="E8" s="13">
+        <f>IF(ISBLANK($A8),"",IF(ISBLANK(D8),MIN(E7,F7),(D8-D2)/MIN(ROW()-7,7)))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>IF(ISBLANK($A8),"",IF(ISBLANK(D8),MAX(0,F7-E8),C8-D8))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="str">
+        <f>IF(ISBLANK($A8),"",IF(AND(NOT(ISBLANK(G7)),F7=0),G7,IF(E8=0,"",$B8+ROUNDUP(F8/E8,0))))</f>
+        <v/>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" ref="H8:H71" si="0">IF(ISBLANK($A8),"",IF(G8="",IF(F8=0,H7,""),(G8-$L$8)/($L$8-$B$8)))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>40362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="8" t="str">
+        <f>IF(ISBLANK(A9),"",B$8+A9-1)</f>
+        <v/>
+      </c>
+      <c r="E9" s="13" t="str">
+        <f t="shared" ref="E9:E72" si="1">IF(ISBLANK($A9),"",IF(ISBLANK(D9),MIN(E8,F8),(D9-D3)/MIN(ROW()-7,7)))</f>
+        <v/>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f t="shared" ref="F9:F72" si="2">IF(ISBLANK($A9),"",IF(ISBLANK(D9),MAX(0,F8-E9),C9-D9))</f>
+        <v/>
+      </c>
+      <c r="G9" s="15" t="str">
+        <f t="shared" ref="G9:G72" si="3">IF(ISBLANK($A9),"",IF(AND(NOT(ISBLANK(G8)),F8=0),G8,IF(E9=0,"",$B9+ROUNDUP(F9/E9,0))))</f>
+        <v/>
+      </c>
+      <c r="H9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>VLOOKUP(MAX($A$2:$A$100),$A$2:G$100,7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="8" t="str">
+        <f t="shared" ref="B10:B73" si="4">IF(ISBLANK(A10),"",B$8+A10-1)</f>
+        <v/>
+      </c>
+      <c r="E10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G10" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="16" t="e">
+        <f>($L$9-$L$8)/($L$8-$B$8)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G16" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G17" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G21" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G22" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H22" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G23" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G27" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H27" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H29" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E30" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E32" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G32" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E33" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G33" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E34" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G34" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H34" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E35" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G35" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H35" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E36" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H36" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E37" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F37" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G37" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H37" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H38" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E39" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F39" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G39" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H39" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E40" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F40" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G40" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H40" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E41" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G41" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H41" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E42" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F42" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G42" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H42" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E43" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F43" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G43" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H43" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E44" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G44" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H44" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E45" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F45" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G45" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H45" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E46" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H46" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E47" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G47" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H47" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E48" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H48" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E49" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F49" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G49" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H49" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E50" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F50" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G50" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H50" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E51" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G51" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H51" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E52" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F52" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G52" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H52" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E53" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F53" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G53" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H53" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E54" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F54" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G54" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H54" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E55" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F55" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G55" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H55" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E56" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F56" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G56" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H56" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E57" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F57" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G57" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H57" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E58" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F58" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G58" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H58" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E59" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F59" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G59" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H59" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E60" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F60" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G60" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H60" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E61" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F61" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G61" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H61" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E62" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F62" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G62" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H62" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E63" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F63" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G63" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H63" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E64" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F64" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G64" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H64" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E65" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F65" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G65" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H65" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E66" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G66" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H66" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E67" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F67" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G67" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H67" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E68" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F68" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G68" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H68" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E69" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F69" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G69" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H69" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E70" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F70" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G70" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H70" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E71" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F71" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G71" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H71" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E72" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F72" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G72" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H72" s="22" t="str">
+        <f t="shared" ref="H72:H100" si="5">IF(ISBLANK($A72),"",IF(G72="",IF(F72=0,H71,""),(G72-$L$8)/($L$8-$B$8)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E73" s="13" t="str">
+        <f t="shared" ref="E73:E100" si="6">IF(ISBLANK($A73),"",IF(ISBLANK(D73),MIN(E72,F72),(D73-D67)/MIN(ROW()-7,7)))</f>
+        <v/>
+      </c>
+      <c r="F73" s="13" t="str">
+        <f t="shared" ref="F73:F100" si="7">IF(ISBLANK($A73),"",IF(ISBLANK(D73),MAX(0,F72-E73),C73-D73))</f>
+        <v/>
+      </c>
+      <c r="G73" s="15" t="str">
+        <f t="shared" ref="G73:G100" si="8">IF(ISBLANK($A73),"",IF(AND(NOT(ISBLANK(G72)),F72=0),G72,IF(E73=0,"",$B73+ROUNDUP(F73/E73,0))))</f>
+        <v/>
+      </c>
+      <c r="H73" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="8" t="str">
+        <f t="shared" ref="B74:B100" si="9">IF(ISBLANK(A74),"",B$8+A74-1)</f>
+        <v/>
+      </c>
+      <c r="E74" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F74" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G74" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H74" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E75" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F75" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G75" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H75" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E76" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F76" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G76" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H76" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E77" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F77" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G77" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H77" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E78" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F78" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G78" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H78" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E79" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F79" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G79" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H79" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E80" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F80" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G80" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H80" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E81" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F81" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G81" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H81" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E82" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F82" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G82" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H82" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E83" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F83" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G83" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H83" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E84" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F84" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G84" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H84" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E85" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F85" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G85" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H85" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E86" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F86" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G86" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H86" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E87" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F87" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G87" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H87" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E88" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F88" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G88" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H88" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E89" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F89" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G89" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H89" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E90" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F90" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G90" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H90" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E91" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F91" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G91" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H91" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E92" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F92" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G92" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H92" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E93" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F93" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G93" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H93" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E94" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F94" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G94" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H94" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E95" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F95" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G95" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H95" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E96" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F96" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G96" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H96" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="B97" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E97" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F97" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G97" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H97" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="B98" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E98" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F98" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G98" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H98" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="B99" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E99" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F99" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G99" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H99" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="25"/>
+      <c r="B100" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F100" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G100" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H100" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I100" s="30"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H1048576 L10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(ROW()&gt;1, NOT(ISBLANK($A1)), OR(ISBLANK(D1), F1&gt;0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(NOT(ISBLANK($A1)),ISBLANK(D1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>